--- a/medicine/Sexualité et sexologie/Zeta_One/Zeta_One.xlsx
+++ b/medicine/Sexualité et sexologie/Zeta_One/Zeta_One.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zeta One est une comédie de science-fiction érotique britannique réalisée en 1969 par Michael Cort.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une expédition de femmes venues d'une autre dimension et dirigée par la reine Zeta vient sur Terre afin de récupérer la semence qui permettra de repeupler leur planète. Mais les services secrets veillent et vont tenter de contrarier les projets des belles extraterrestres
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisateur : Michael Cort
 Producteurs : George Maynard, Tony Tenser
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>James Robertson Justice : Major Bourdon
 Charles Hawtrey : Swyne
@@ -626,7 +644,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Zeta One a été le premier film tourné aux Camden Studios, qui était autrefois une usine de papier peint dans le nord de Londres
 L'intrigue du film était basée sur une histoire courte de bande dessinée dans le magazine Zeta .
